--- a/DOC/profits/Temporizador_v811 - Gastos - 11-07-2023.xlsx
+++ b/DOC/profits/Temporizador_v811 - Gastos - 11-07-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Desktop\Temporizador\TemporizadorAC\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Desktop\GitHub Repos\TemporizadorAC\DOC\profits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECC273A-28CB-4EDA-9154-643AC0AB83EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488C49FD-C40F-4137-8FD4-42AB4B86C475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +160,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -233,6 +241,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +525,10 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="4" width="8.88671875" style="1"/>
@@ -791,15 +800,22 @@
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B18" s="1">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
       <c r="D18" s="1">
         <f t="shared" ref="D18:D27" si="1">B18*C18</f>
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B19" s="8"/>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -880,11 +896,20 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="6">
         <f>SUM(D18:D27)</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D28-D16</f>
+        <v>132.96000000000004</v>
+      </c>
+      <c r="F28" s="1">
+        <f>E28*300</f>
+        <v>39888.000000000015</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>